--- a/Editor/Scripts/DialogueSystem/ExcelConverter/Temp.xlsx
+++ b/Editor/Scripts/DialogueSystem/ExcelConverter/Temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCreateGame\Dream Creative\Assets\Editor\ZincFramework\DialogueSystem\ExcelConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCreateGame\Demo\Assets\Editor\ZincFramework\DialogueSystem\ExcelConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F10F68-9805-44C5-90D5-D0739A0CF5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5077F548-3A24-4E04-B474-CA4A738314B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="4845" windowWidth="35910" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>TextId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,26 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConditionExpressions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventExpression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectNames</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroundName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,18 +67,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意，人物ID和CharacterData内的人物ID一一对应，但是名字可以不对应（即多人物关系）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serializableCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>className</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>namespaces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,43 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条件分支节点的条件表达式，不是条件分支节点不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件节点的事件表达式，非事件节点不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果节点的效果表达式，非事件节点不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话时的背景图名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点在图中的位置，不用填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnityEngine.Vector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此时可见的人物们，由人物编号，差分ID，是否聚焦，人物位置构成，不填代表不可见,填入重复的会创建多张一样的图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisibleStates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array/VisibleState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,9 +142,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,16 +154,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,18 +438,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="47.08203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
@@ -532,181 +457,109 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
+    <row r="6" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
